--- a/excel_reports/Gabriel_Rhone.xlsx
+++ b/excel_reports/Gabriel_Rhone.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1046">
   <si>
     <t>Policy Record</t>
   </si>
@@ -2752,6 +2752,36 @@
     <t>Humana Gold Plus H1468-013 (HMO)</t>
   </si>
   <si>
+    <t>3168531348</t>
+  </si>
+  <si>
+    <t>7624801</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Wellcare No Premium Open (PPO)</t>
+  </si>
+  <si>
+    <t>4194580747</t>
+  </si>
+  <si>
+    <t>110 - Submitted</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
     <t>3168469166</t>
   </si>
   <si>
@@ -2875,9 +2905,6 @@
     <t>AETNA DVH (Standard) 2000</t>
   </si>
   <si>
-    <t>110 - Submitted</t>
-  </si>
-  <si>
     <t>11-28-2022</t>
   </si>
   <si>
@@ -2894,21 +2921,6 @@
   </si>
   <si>
     <t>Engle</t>
-  </si>
-  <si>
-    <t>3952817010</t>
-  </si>
-  <si>
-    <t>4967601</t>
-  </si>
-  <si>
-    <t>Faulk</t>
-  </si>
-  <si>
-    <t>11-17-2022</t>
-  </si>
-  <si>
-    <t>01-01-2023</t>
   </si>
   <si>
     <t>3172133467</t>
@@ -3549,35 +3561,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -3586,7 +3598,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -3594,30 +3606,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -3626,12 +3638,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -3639,7 +3651,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3647,20 +3659,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -3669,12 +3681,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B20">
         <v>21</v>
@@ -3682,15 +3694,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -3698,7 +3710,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -3707,7 +3719,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -3716,7 +3728,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3724,7 +3736,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3732,7 +3744,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3740,7 +3752,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -3749,7 +3761,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -3763,7 +3775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W396"/>
+  <dimension ref="A1:W399"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14512,325 +14524,422 @@
         <v>912</v>
       </c>
       <c r="C386" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E386" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D386" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="E386" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F386" s="6" t="s">
-        <v>28</v>
+        <v>915</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H386" s="6" t="s">
-        <v>28</v>
+        <v>915</v>
       </c>
       <c r="I386" s="6" t="s">
-        <v>467</v>
+        <v>848</v>
       </c>
       <c r="J386" s="6" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="K386" t="s">
         <v>469</v>
       </c>
       <c r="L386" t="s">
-        <v>32</v>
+        <v>470</v>
       </c>
       <c r="M386" t="s">
+        <v>296</v>
+      </c>
+      <c r="N386" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q386" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23">
+      <c r="A387" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F387" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G387" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H387" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="I387" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J387" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="K387" t="s">
+        <v>469</v>
+      </c>
+      <c r="L387" t="s">
+        <v>918</v>
+      </c>
+      <c r="M387" t="s">
+        <v>919</v>
+      </c>
+      <c r="N387" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q387" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S387" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23">
+      <c r="A389" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F389" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G389" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H389" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I389" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J389" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="K389" t="s">
+        <v>469</v>
+      </c>
+      <c r="L389" t="s">
+        <v>32</v>
+      </c>
+      <c r="M389" t="s">
         <v>259</v>
       </c>
-      <c r="N386" t="s">
+      <c r="N389" t="s">
         <v>47</v>
       </c>
-      <c r="Q386" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S386" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T386" s="6">
+      <c r="Q389" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S389" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T389" s="6">
         <v>2.5</v>
       </c>
-      <c r="W386" t="b">
+      <c r="W389" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:23">
-      <c r="A388" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="B388" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="C388" s="6" t="s">
+    <row r="391" spans="1:23">
+      <c r="A391" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="C391" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D388" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="E388" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F388" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G388" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H388" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I388" s="6" t="s">
+      <c r="D391" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F391" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G391" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H391" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I391" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="J388" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="K388" t="s">
+      <c r="J391" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="K391" t="s">
         <v>469</v>
       </c>
-      <c r="L388" t="s">
-        <v>32</v>
-      </c>
-      <c r="M388" t="s">
+      <c r="L391" t="s">
+        <v>32</v>
+      </c>
+      <c r="M391" t="s">
         <v>259</v>
       </c>
-      <c r="N388" t="s">
+      <c r="N391" t="s">
         <v>47</v>
       </c>
-      <c r="Q388" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S388" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T388" s="6">
+      <c r="Q391" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S391" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T391" s="6">
         <v>2.5</v>
       </c>
-      <c r="W388" t="b">
+      <c r="W391" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:23">
-      <c r="A390" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="C390" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="E390" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F390" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G390" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H390" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I390" s="6" t="s">
+    <row r="393" spans="1:23">
+      <c r="A393" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G393" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H393" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I393" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="J390" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="K390" t="s">
+      <c r="J393" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="K393" t="s">
         <v>469</v>
       </c>
-      <c r="L390" t="s">
-        <v>32</v>
-      </c>
-      <c r="M390" t="s">
-        <v>922</v>
-      </c>
-      <c r="N390" t="s">
+      <c r="L393" t="s">
+        <v>32</v>
+      </c>
+      <c r="M393" t="s">
+        <v>932</v>
+      </c>
+      <c r="N393" t="s">
         <v>63</v>
       </c>
-      <c r="Q390" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S390" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T390" s="6">
+      <c r="Q393" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S393" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T393" s="6">
         <v>2.5</v>
       </c>
-      <c r="W390" t="b">
+      <c r="W393" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:23">
-      <c r="A392" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="B392" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F392" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G392" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H392" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I392" s="6" t="s">
+    <row r="395" spans="1:23">
+      <c r="A395" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F395" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G395" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H395" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I395" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J392" s="6" t="s">
+      <c r="J395" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="K392" t="s">
+      <c r="K395" t="s">
         <v>469</v>
       </c>
-      <c r="L392" t="s">
-        <v>32</v>
-      </c>
-      <c r="M392" t="s">
+      <c r="L395" t="s">
+        <v>32</v>
+      </c>
+      <c r="M395" t="s">
         <v>211</v>
       </c>
-      <c r="N392" t="s">
+      <c r="N395" t="s">
         <v>98</v>
       </c>
-      <c r="Q392" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S392" s="7" t="s">
+      <c r="Q395" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S395" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="394" spans="1:23">
-      <c r="A394" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="B394" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="C394" s="6" t="s">
+    <row r="397" spans="1:23">
+      <c r="A397" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="C397" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="E394" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F394" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G394" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H394" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I394" s="6" t="s">
+      <c r="D397" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F397" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G397" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H397" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I397" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="J394" s="6" t="s">
+      <c r="J397" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="K394" t="s">
+      <c r="K397" t="s">
         <v>469</v>
       </c>
-      <c r="L394" t="s">
-        <v>32</v>
-      </c>
-      <c r="M394" t="s">
-        <v>930</v>
-      </c>
-      <c r="N394" t="s">
+      <c r="L397" t="s">
+        <v>32</v>
+      </c>
+      <c r="M397" t="s">
+        <v>940</v>
+      </c>
+      <c r="N397" t="s">
         <v>41</v>
       </c>
-      <c r="Q394" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S394" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T394" s="6">
+      <c r="Q397" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S397" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T397" s="6">
         <v>2.5</v>
       </c>
-      <c r="W394" t="b">
+      <c r="W397" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:23">
-      <c r="A396" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="B396" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="C396" s="6" t="s">
+    <row r="399" spans="1:23">
+      <c r="A399" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C399" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="D396" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="E396" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F396" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G396" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H396" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I396" s="6" t="s">
+      <c r="D399" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F399" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H399" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I399" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J396" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="K396" t="s">
+      <c r="J399" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="K399" t="s">
         <v>469</v>
       </c>
-      <c r="L396" t="s">
-        <v>32</v>
-      </c>
-      <c r="M396" t="s">
+      <c r="L399" t="s">
+        <v>32</v>
+      </c>
+      <c r="M399" t="s">
         <v>535</v>
       </c>
-      <c r="N396" t="s">
+      <c r="N399" t="s">
         <v>63</v>
       </c>
-      <c r="Q396" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S396" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T396" s="6">
+      <c r="Q399" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S399" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T399" s="6">
         <v>2.5</v>
       </c>
-      <c r="W396" t="b">
+      <c r="W399" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15226,16 +15335,20 @@
     <hyperlink ref="B384" r:id="rId388"/>
     <hyperlink ref="A386" r:id="rId389"/>
     <hyperlink ref="B386" r:id="rId390"/>
-    <hyperlink ref="A388" r:id="rId391"/>
-    <hyperlink ref="B388" r:id="rId392"/>
-    <hyperlink ref="A390" r:id="rId393"/>
-    <hyperlink ref="B390" r:id="rId394"/>
-    <hyperlink ref="A392" r:id="rId395"/>
-    <hyperlink ref="B392" r:id="rId396"/>
-    <hyperlink ref="A394" r:id="rId397"/>
-    <hyperlink ref="B394" r:id="rId398"/>
-    <hyperlink ref="A396" r:id="rId399"/>
-    <hyperlink ref="B396" r:id="rId400"/>
+    <hyperlink ref="A387" r:id="rId391"/>
+    <hyperlink ref="B387" r:id="rId392"/>
+    <hyperlink ref="A389" r:id="rId393"/>
+    <hyperlink ref="B389" r:id="rId394"/>
+    <hyperlink ref="A391" r:id="rId395"/>
+    <hyperlink ref="B391" r:id="rId396"/>
+    <hyperlink ref="A393" r:id="rId397"/>
+    <hyperlink ref="B393" r:id="rId398"/>
+    <hyperlink ref="A395" r:id="rId399"/>
+    <hyperlink ref="B395" r:id="rId400"/>
+    <hyperlink ref="A397" r:id="rId401"/>
+    <hyperlink ref="B397" r:id="rId402"/>
+    <hyperlink ref="A399" r:id="rId403"/>
+    <hyperlink ref="B399" r:id="rId404"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15243,7 +15356,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15316,7 +15429,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>43</v>
@@ -15340,10 +15453,10 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="K2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -15357,7 +15470,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>94</v>
@@ -15381,27 +15494,27 @@
         <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="K4" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="N4" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>162</v>
@@ -15428,33 +15541,33 @@
         <v>52</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="K6" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="N6" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -15463,42 +15576,42 @@
         <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="K8" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L8" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
       <c r="M8" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="N8" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -15516,7 +15629,7 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -15530,16 +15643,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>960</v>
+        <v>218</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>961</v>
+        <v>220</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -15548,42 +15661,39 @@
         <v>28</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>465</v>
+        <v>27</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>466</v>
+        <v>28</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="K12" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L12" t="s">
-        <v>952</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>962</v>
+        <v>624</v>
       </c>
       <c r="N12" t="s">
-        <v>963</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
@@ -15598,33 +15708,33 @@
         <v>28</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="K14" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>624</v>
+        <v>287</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
@@ -15639,33 +15749,36 @@
         <v>28</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>936</v>
+        <v>52</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>953</v>
       </c>
       <c r="K16" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>27</v>
@@ -15680,19 +15793,16 @@
         <v>28</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="K18" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>972</v>
       </c>
       <c r="N18" t="s">
         <v>34</v>
@@ -15700,16 +15810,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>27</v>
@@ -15724,33 +15834,36 @@
         <v>28</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>936</v>
+        <v>946</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>949</v>
       </c>
       <c r="K20" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>27</v>
@@ -15765,36 +15878,36 @@
         <v>28</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>936</v>
+        <v>52</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="K22" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="N22" t="s">
-        <v>63</v>
+        <v>977</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>27</v>
@@ -15812,33 +15925,33 @@
         <v>52</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="K24" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>972</v>
+        <v>932</v>
       </c>
       <c r="N24" t="s">
-        <v>973</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="9" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>27</v>
@@ -15856,33 +15969,33 @@
         <v>52</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="K26" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>922</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="9" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>353</v>
+        <v>199</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>27</v>
@@ -15897,36 +16010,33 @@
         <v>28</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="K28" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>226</v>
+        <v>982</v>
       </c>
       <c r="N28" t="s">
-        <v>976</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>27</v>
@@ -15941,33 +16051,36 @@
         <v>28</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>936</v>
+        <v>52</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>953</v>
       </c>
       <c r="K30" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="N30" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>353</v>
+        <v>529</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>27</v>
@@ -15982,36 +16095,36 @@
         <v>28</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>52</v>
+        <v>946</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>943</v>
+        <v>986</v>
       </c>
       <c r="K32" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>980</v>
+        <v>132</v>
       </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="9" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>529</v>
+        <v>169</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>27</v>
@@ -16026,36 +16139,36 @@
         <v>28</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>936</v>
+        <v>52</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="K34" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>132</v>
+        <v>988</v>
       </c>
       <c r="N34" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>27</v>
@@ -16070,36 +16183,36 @@
         <v>28</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>52</v>
+        <v>946</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>943</v>
+        <v>986</v>
       </c>
       <c r="K36" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>984</v>
+        <v>762</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>208</v>
+        <v>627</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>27</v>
@@ -16114,36 +16227,33 @@
         <v>28</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>982</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L38" t="s">
         <v>32</v>
       </c>
       <c r="M38" t="s">
-        <v>762</v>
+        <v>991</v>
       </c>
       <c r="N38" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="9" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -16161,30 +16271,30 @@
         <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>987</v>
+        <v>97</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>680</v>
+        <v>169</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>27</v>
@@ -16199,16 +16309,16 @@
         <v>28</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>52</v>
+        <v>946</v>
       </c>
       <c r="K42" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>994</v>
       </c>
       <c r="N42" t="s">
         <v>34</v>
@@ -16216,16 +16326,16 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>169</v>
+        <v>724</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>27</v>
@@ -16240,150 +16350,109 @@
         <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>936</v>
+        <v>946</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>986</v>
       </c>
       <c r="K44" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>990</v>
+        <v>726</v>
       </c>
       <c r="N44" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="9" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>723</v>
+        <v>997</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>724</v>
+        <v>485</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>725</v>
+        <v>998</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>27</v>
+        <v>465</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>27</v>
+        <v>465</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
       <c r="K46" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="M46" t="s">
-        <v>726</v>
+        <v>999</v>
       </c>
       <c r="N46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>993</v>
-      </c>
-      <c r="C48" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D47" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="K48" t="s">
-        <v>937</v>
-      </c>
-      <c r="L48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M48" t="s">
-        <v>995</v>
-      </c>
-      <c r="N48" t="s">
-        <v>996</v>
-      </c>
-      <c r="O48" t="s">
-        <v>997</v>
-      </c>
-      <c r="P48" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>993</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="I49" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K49" t="s">
-        <v>937</v>
-      </c>
-      <c r="L49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="K47" t="s">
+        <v>947</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N47" t="s">
         <v>196</v>
       </c>
     </row>
@@ -16435,10 +16504,8 @@
     <hyperlink ref="B44" r:id="rId44"/>
     <hyperlink ref="A46" r:id="rId45"/>
     <hyperlink ref="B46" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="B48" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="B47" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16519,7 +16586,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>839</v>
@@ -16543,10 +16610,10 @@
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="K2" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="L2" t="s">
         <v>470</v>
@@ -16560,7 +16627,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>875</v>
@@ -16584,10 +16651,10 @@
         <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="K4" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -16601,57 +16668,57 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="K6" t="s">
         <v>1007</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1003</v>
-      </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -16666,10 +16733,10 @@
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="K8" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="L8" t="s">
         <v>470</v>
@@ -16681,7 +16748,7 @@
         <v>63</v>
       </c>
       <c r="P8" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
